--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_19-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_19-26.xlsx
@@ -206,78 +206,81 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORT SECRETS SKIN  CREAM</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GASTROBIOTIC 200 MG 20 F.C.TAB. (N/A)</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>HEPTA PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>HYDROQUINE 200MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>LI.LI VAGINAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>9:1</t>
   </si>
   <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORT SECRETS SKIN  CREAM</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GASTROBIOTIC 200 MG 20 F.C.TAB. (N/A)</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>HEPTA PANTHENOL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>HYDROQUINE 200MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>LI.LI VAGINAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -447,9 +450,6 @@
   </si>
   <si>
     <t>مرهم راسب ابيض</t>
-  </si>
-  <si>
-    <t>9:0</t>
   </si>
   <si>
     <t>Saturday, 3 January, 2026 7:26 PM</t>
@@ -2039,11 +2039,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1.6699999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2579,7 +2579,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2597,7 +2597,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2623,7 +2623,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2649,7 +2649,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2675,7 +2675,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2701,7 +2701,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2727,7 +2727,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2735,7 +2735,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -2753,7 +2753,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2779,7 +2779,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2805,7 +2805,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2831,7 +2831,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2839,7 +2839,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -2857,7 +2857,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2865,7 +2865,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -2883,7 +2883,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2909,7 +2909,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2935,7 +2935,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2943,7 +2943,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -2961,7 +2961,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2987,7 +2987,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3013,7 +3013,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3039,7 +3039,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3065,7 +3065,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3091,7 +3091,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3117,7 +3117,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3125,7 +3125,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -3143,7 +3143,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3169,7 +3169,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3195,7 +3195,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3221,7 +3221,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3247,7 +3247,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3273,7 +3273,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3281,7 +3281,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -3299,7 +3299,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3325,7 +3325,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3351,7 +3351,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3359,7 +3359,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -3377,7 +3377,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3403,7 +3403,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3411,7 +3411,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -3429,7 +3429,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3455,7 +3455,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3463,7 +3463,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -3481,7 +3481,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3507,7 +3507,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3533,7 +3533,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3541,7 +3541,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -3559,7 +3559,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3567,7 +3567,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -3585,7 +3585,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3611,7 +3611,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3637,7 +3637,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3645,7 +3645,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -3663,7 +3663,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3671,7 +3671,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
@@ -3689,7 +3689,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3697,7 +3697,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -3715,7 +3715,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3723,7 +3723,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -3741,7 +3741,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3767,7 +3767,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3775,7 +3775,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="110" ht="26.25" customHeight="1">
       <c r="K110" s="11">
-        <v>5767.6000000000004</v>
+        <v>5783.6000000000004</v>
       </c>
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
